--- a/populationInfo/OriginalMetadata/AOB.JCBN.DrosEUExtraction_metadata_12 Jan 2023.xlsx
+++ b/populationInfo/OriginalMetadata/AOB.JCBN.DrosEUExtraction_metadata_12 Jan 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DESTv2/populationInfo/OriginalMetadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B19FCF-1979-E645-9F85-5FE8D8B04B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1125265C-C1C7-A043-9EFD-7BD65C18C70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="1094">
   <si>
     <t>f</t>
   </si>
@@ -4924,7 +4924,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5145,8 +5145,8 @@
   <dimension ref="A1:BG1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L215" sqref="L215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24046,10 +24046,10 @@
       <c r="G183" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="H183" s="392">
+      <c r="H183" s="59">
         <v>18</v>
       </c>
-      <c r="I183" s="392">
+      <c r="I183" s="59">
         <v>19</v>
       </c>
       <c r="J183" s="60" t="s">
@@ -27293,11 +27293,11 @@
       <c r="G215" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="H215" s="195" t="s">
-        <v>760</v>
-      </c>
-      <c r="I215" s="195" t="s">
-        <v>760</v>
+      <c r="H215" s="392">
+        <v>1</v>
+      </c>
+      <c r="I215" s="392">
+        <v>1</v>
       </c>
       <c r="J215" s="27" t="s">
         <v>72</v>
@@ -40132,7 +40132,7 @@
   <customSheetViews>
     <customSheetView guid="{CFD1009B-BCC0-47C6-8A04-20F08F0A4FDF}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AU1001" xr:uid="{EFEC9255-F84B-9742-BECA-DE9691990E3A}">
+      <autoFilter ref="A1:AU1001" xr:uid="{9D433AB1-2177-7F4E-82BD-3BD31C6CD591}">
         <filterColumn colId="3">
           <filters>
             <filter val="Aguade"/>

--- a/populationInfo/OriginalMetadata/AOB.JCBN.DrosEUExtraction_metadata_12 Jan 2023.xlsx
+++ b/populationInfo/OriginalMetadata/AOB.JCBN.DrosEUExtraction_metadata_12 Jan 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DESTv2/populationInfo/OriginalMetadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1125265C-C1C7-A043-9EFD-7BD65C18C70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3F5F23-DB4A-1947-B3F7-4947D8BFF640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="46820" windowHeight="26560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -3957,7 +3957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4924,9 +4924,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5144,9 +5141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L215" sqref="L215"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z31" sqref="Z31:Z46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8482,7 +8479,7 @@
         <v>454</v>
       </c>
       <c r="Z32" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA32" s="25" t="s">
         <v>455</v>
@@ -8578,8 +8575,8 @@
       <c r="Y33" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="Z33" s="58" t="s">
-        <v>333</v>
+      <c r="Z33" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="AA33" s="58" t="s">
         <v>455</v>
@@ -8675,8 +8672,8 @@
       <c r="Y34" s="80" t="s">
         <v>454</v>
       </c>
-      <c r="Z34" s="80" t="s">
-        <v>333</v>
+      <c r="Z34" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="AA34" s="80" t="s">
         <v>461</v>
@@ -8772,8 +8769,8 @@
       <c r="Y35" s="69" t="s">
         <v>454</v>
       </c>
-      <c r="Z35" s="69" t="s">
-        <v>333</v>
+      <c r="Z35" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="AA35" s="69" t="s">
         <v>104</v>
@@ -8870,7 +8867,7 @@
         <v>454</v>
       </c>
       <c r="Z36" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA36" s="25" t="s">
         <v>104</v>
@@ -8967,7 +8964,7 @@
         <v>130</v>
       </c>
       <c r="Z37" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA37" s="25" t="s">
         <v>104</v>
@@ -9064,7 +9061,7 @@
         <v>130</v>
       </c>
       <c r="Z38" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA38" s="25" t="s">
         <v>104</v>
@@ -9161,7 +9158,7 @@
         <v>130</v>
       </c>
       <c r="Z39" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA39" s="25" t="s">
         <v>104</v>
@@ -9258,7 +9255,7 @@
         <v>130</v>
       </c>
       <c r="Z40" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA40" s="25" t="s">
         <v>104</v>
@@ -9355,7 +9352,7 @@
         <v>130</v>
       </c>
       <c r="Z41" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA41" s="25" t="s">
         <v>104</v>
@@ -9452,7 +9449,7 @@
         <v>130</v>
       </c>
       <c r="Z42" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA42" s="25" t="s">
         <v>104</v>
@@ -9549,7 +9546,7 @@
         <v>130</v>
       </c>
       <c r="Z43" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA43" s="25" t="s">
         <v>104</v>
@@ -9646,7 +9643,7 @@
         <v>130</v>
       </c>
       <c r="Z44" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA44" s="25" t="s">
         <v>104</v>
@@ -9743,7 +9740,7 @@
         <v>130</v>
       </c>
       <c r="Z45" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA45" s="25" t="s">
         <v>104</v>
@@ -9840,7 +9837,7 @@
         <v>130</v>
       </c>
       <c r="Z46" s="25" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="AA46" s="25" t="s">
         <v>104</v>
@@ -27293,10 +27290,10 @@
       <c r="G215" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="H215" s="392">
+      <c r="H215" s="28">
         <v>1</v>
       </c>
-      <c r="I215" s="392">
+      <c r="I215" s="28">
         <v>1</v>
       </c>
       <c r="J215" s="27" t="s">
@@ -40132,7 +40129,7 @@
   <customSheetViews>
     <customSheetView guid="{CFD1009B-BCC0-47C6-8A04-20F08F0A4FDF}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AU1001" xr:uid="{9D433AB1-2177-7F4E-82BD-3BD31C6CD591}">
+      <autoFilter ref="A1:AU1001" xr:uid="{D569C36E-9970-BB45-906B-A9AF4982DF58}">
         <filterColumn colId="3">
           <filters>
             <filter val="Aguade"/>
